--- a/script/异常报备测试数据10条.xlsx
+++ b/script/异常报备测试数据10条.xlsx
@@ -479,50 +479,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仇洪伟</t>
+          <t>朱继梅</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>自主招聘</t>
+          <t>供应商</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>朱继梅</t>
+          <t>测试11</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>外地市场</t>
+          <t>本地市场</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>劳务协议</t>
+          <t>实习协议</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>610725200207118643</t>
+          <t>610702198905248096</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18952825750</t>
+          <t>15708261157</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44743.63071759259</v>
+        <v>44745.62201388889</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>孙兰英</t>
+          <t>熊梅</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
     </row>
@@ -549,25 +549,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>实习协议</t>
+          <t>兼职协议</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>34182419980807143X</t>
+          <t>150502199211229256</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13974728681</t>
+          <t>18814572287</t>
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>44743.65803240741</v>
+        <v>44746.0737962963</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>陈波</t>
+          <t>李刚</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -584,40 +584,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>院校</t>
+          <t>自主招聘</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>院校12</t>
+          <t>朱继梅</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>外地市场</t>
+          <t>本地市场</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>劳务协议</t>
+          <t>实习协议</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>33020619940301536X</t>
+          <t>371321200011051698</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13394334501</t>
+          <t>13983909400</t>
         </is>
       </c>
       <c r="H4" s="1" t="n">
-        <v>44745.27959490741</v>
+        <v>44739.57762731481</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>李欢</t>
+          <t>全金凤</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -629,45 +629,45 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>仵鹏</t>
+          <t>管小芳</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>自主招聘</t>
+          <t>院校</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>朱继梅</t>
+          <t>二级院校</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>本地市场</t>
+          <t>外地市场</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>兼职协议</t>
+          <t>劳务协议</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>411524199912207685</t>
+          <t>411500198708173128</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13817497391</t>
+          <t>13037346519</t>
         </is>
       </c>
       <c r="H5" s="1" t="n">
-        <v>44744.4181712963</v>
+        <v>44744.46858796296</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>李健</t>
+          <t>鲜秀芳</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -679,45 +679,45 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>管小芳</t>
+          <t>仵鹏</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>自主招聘</t>
+          <t>供应商</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>仵鹏</t>
+          <t>上线前最后的供应商1126</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>本地市场</t>
+          <t>外地市场</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>劳务协议</t>
+          <t>兼职协议</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>542429199709013910</t>
+          <t>231085199304112588</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15392575444</t>
+          <t>14528605275</t>
         </is>
       </c>
       <c r="H6" s="1" t="n">
-        <v>44740.25540509259</v>
+        <v>44741.43395833333</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>陈玉梅</t>
+          <t>李婷婷</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -729,45 +729,45 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>朱继梅</t>
+          <t>战丽梅</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>供应商</t>
+          <t>自主招聘</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上线前最后的供应商1126</t>
+          <t>仇洪伟</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>本地市场</t>
+          <t>外地市场</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>实习协议</t>
+          <t>兼职协议</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>532502200201224660</t>
+          <t>371103199707313394</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14537223482</t>
+          <t>15278645596</t>
         </is>
       </c>
       <c r="H7" s="1" t="n">
-        <v>44744.86736111111</v>
+        <v>44744.63865740741</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>杨杰</t>
+          <t>何淑珍</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -779,7 +779,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>朱继梅</t>
+          <t>李勇</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>院校12</t>
+          <t>二级院校</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -799,47 +799,47 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>劳务协议</t>
+          <t>实习协议</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>411400199801138588</t>
+          <t>370203199107188168</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18218245636</t>
+          <t>13841086698</t>
         </is>
       </c>
       <c r="H8" s="1" t="n">
-        <v>44739.17739583334</v>
+        <v>44744.90324074074</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>翁建平</t>
+          <t>殷健</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>战丽梅</t>
+          <t>李勇</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>供应商</t>
+          <t>院校</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上线前最后的供应商1126</t>
+          <t>二级院校</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -854,25 +854,25 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>620923199907298002</t>
+          <t>33118119990110845X</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13904473879</t>
+          <t>15821354357</t>
         </is>
       </c>
       <c r="H9" s="1" t="n">
-        <v>44745.25702546296</v>
+        <v>44742.3680787037</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>钟桂芳</t>
+          <t>刘飞</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
     </row>
@@ -884,45 +884,45 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>自主招聘</t>
+          <t>院校</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>战丽梅</t>
+          <t>院校12</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>外地市场</t>
+          <t>本地市场</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>实习协议</t>
+          <t>劳务协议</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>411527199105107345</t>
+          <t>110100199012090739</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13216859409</t>
+          <t>18668106182</t>
         </is>
       </c>
       <c r="H10" s="1" t="n">
-        <v>44738.60800925926</v>
+        <v>44745.11947916666</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>万倩</t>
+          <t>孙婷婷</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>供应商</t>
+          <t>自主招聘</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>测试11</t>
+          <t>仵鹏</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -954,20 +954,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>460202199211183776</t>
+          <t>220501199106024015</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15203153181</t>
+          <t>15839291175</t>
         </is>
       </c>
       <c r="H11" s="1" t="n">
-        <v>44740.66462962963</v>
+        <v>44743.07335648148</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>梁红</t>
+          <t>王莉</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">

--- a/script/异常报备测试数据10条.xlsx
+++ b/script/异常报备测试数据10条.xlsx
@@ -479,17 +479,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>朱继梅</t>
+          <t>仇洪伟</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>供应商</t>
+          <t>自主招聘</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>测试11</t>
+          <t>李勇</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -499,30 +499,30 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>实习协议</t>
+          <t>兼职协议</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>610702198905248096</t>
+          <t>320981199911273580</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15708261157</t>
+          <t>15277682930</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44745.62201388889</v>
+        <v>44745.42815972222</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>熊梅</t>
+          <t>程涛</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
     </row>
@@ -534,67 +534,67 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>供应商</t>
+          <t>院校</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上线前最后的供应商1126</t>
+          <t>院校12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>外地市场</t>
+          <t>本地市场</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>兼职协议</t>
+          <t>劳务协议</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>150502199211229256</t>
+          <t>431281199608184954</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18814572287</t>
+          <t>18900275294</t>
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>44746.0737962963</v>
+        <v>44748.34501157407</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>李刚</t>
+          <t>魏建平</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>管小芳</t>
+          <t>战丽梅</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>自主招聘</t>
+          <t>院校</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>朱继梅</t>
+          <t>院校12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>本地市场</t>
+          <t>外地市场</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -604,70 +604,70 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>371321200011051698</t>
+          <t>140522199105140139</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13983909400</t>
+          <t>18771521267</t>
         </is>
       </c>
       <c r="H4" s="1" t="n">
-        <v>44739.57762731481</v>
+        <v>44745.71040509259</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>全金凤</t>
+          <t>徐成</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>管小芳</t>
+          <t>朱继梅</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>院校</t>
+          <t>供应商</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>二级院校</t>
+          <t>上线前最后的供应商1126</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>外地市场</t>
+          <t>本地市场</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>劳务协议</t>
+          <t>劳动合同</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>411500198708173128</t>
+          <t>331021199503094011</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13037346519</t>
+          <t>15095426277</t>
         </is>
       </c>
       <c r="H5" s="1" t="n">
-        <v>44744.46858796296</v>
+        <v>44745.28326388889</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>鲜秀芳</t>
+          <t>廖欢</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -679,95 +679,95 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>仵鹏</t>
+          <t>管小芳</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>供应商</t>
+          <t>院校</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上线前最后的供应商1126</t>
+          <t>二级院校</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>外地市场</t>
+          <t>本地市场</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>兼职协议</t>
+          <t>劳务协议</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>231085199304112588</t>
+          <t>150430199603301552</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14528605275</t>
+          <t>15553332243</t>
         </is>
       </c>
       <c r="H6" s="1" t="n">
-        <v>44741.43395833333</v>
+        <v>44749.69864583333</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>李婷婷</t>
+          <t>孟瑞</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>战丽梅</t>
+          <t>仇洪伟</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>自主招聘</t>
+          <t>供应商</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>仇洪伟</t>
+          <t>测试11</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>外地市场</t>
+          <t>本地市场</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>兼职协议</t>
+          <t>实习协议</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>371103199707313394</t>
+          <t>433122200107044023</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15278645596</t>
+          <t>14518877256</t>
         </is>
       </c>
       <c r="H7" s="1" t="n">
-        <v>44744.63865740741</v>
+        <v>44750.24983796296</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>何淑珍</t>
+          <t>苏金凤</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -779,7 +779,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>李勇</t>
+          <t>朱继梅</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>二级院校</t>
+          <t>院校12</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -799,25 +799,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>实习协议</t>
+          <t>兼职协议</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>370203199107188168</t>
+          <t>130701199305285778</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13841086698</t>
+          <t>15721999176</t>
         </is>
       </c>
       <c r="H8" s="1" t="n">
-        <v>44744.90324074074</v>
+        <v>44748.75284722223</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>殷健</t>
+          <t>刘玉英</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -829,7 +829,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>李勇</t>
+          <t>仵鹏</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -839,35 +839,35 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>二级院校</t>
+          <t>院校12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>本地市场</t>
+          <t>外地市场</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>实习协议</t>
+          <t>劳务协议</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>33118119990110845X</t>
+          <t>37148219941102961X</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15821354357</t>
+          <t>13829965293</t>
         </is>
       </c>
       <c r="H9" s="1" t="n">
-        <v>44742.3680787037</v>
+        <v>44748.94862268519</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>刘飞</t>
+          <t>高建国</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -879,19 +879,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>战丽梅</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>自主招聘</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>仵鹏</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>院校</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>院校12</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>本地市场</t>
@@ -899,25 +899,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>劳务协议</t>
+          <t>实习协议</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>110100199012090739</t>
+          <t>350105200101164439</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18668106182</t>
+          <t>15611656515</t>
         </is>
       </c>
       <c r="H10" s="1" t="n">
-        <v>44745.11947916666</v>
+        <v>44747.86111111111</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>孙婷婷</t>
+          <t>常秀梅</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>仵鹏</t>
+          <t>李勇</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -949,30 +949,30 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>兼职协议</t>
+          <t>劳务协议</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>220501199106024015</t>
+          <t>360829200005080340</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15839291175</t>
+          <t>15902314042</t>
         </is>
       </c>
       <c r="H11" s="1" t="n">
-        <v>44743.07335648148</v>
+        <v>44751.76467592592</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>王莉</t>
+          <t>阎琳</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
     </row>
